--- a/Excel/mid function.xlsx
+++ b/Excel/mid function.xlsx
@@ -1,35 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eanbhpa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\video working\video Data\basic excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFC6D5C5-6D8C-462C-9877-3CD8F7EFDF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455"/>
   </bookViews>
   <sheets>
     <sheet name="MID" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -113,7 +101,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -462,23 +450,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" customWidth="1"/>
-    <col min="3" max="3" width="2.54296875" customWidth="1"/>
-    <col min="4" max="4" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,7 +481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -510,7 +498,7 @@
         <v>Kaur</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -527,7 +515,7 @@
         <v>Ansh</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -544,7 +532,7 @@
         <v>kaur</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -561,7 +549,7 @@
         <v>Karan</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -578,7 +566,7 @@
         <v>Mohan</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -595,7 +583,7 @@
         <v>Chandra</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -612,7 +600,7 @@
         <v>Aman</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -629,7 +617,7 @@
         <v>Sidharth</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -646,7 +634,7 @@
         <v>Suman</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
